--- a/Login_form/data.xlsx
+++ b/Login_form/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="505">
   <si>
     <t>Exceed</t>
   </si>
@@ -1357,6 +1357,180 @@
   </si>
   <si>
     <t>độc lập</t>
+  </si>
+  <si>
+    <t>consumption</t>
+  </si>
+  <si>
+    <t>tiêu thụ</t>
+  </si>
+  <si>
+    <t>depart</t>
+  </si>
+  <si>
+    <t>khởi hành</t>
+  </si>
+  <si>
+    <t>sustainable</t>
+  </si>
+  <si>
+    <t>bền vững</t>
+  </si>
+  <si>
+    <t>affixed</t>
+  </si>
+  <si>
+    <t>gắn</t>
+  </si>
+  <si>
+    <t>generated</t>
+  </si>
+  <si>
+    <t>tạo ra</t>
+  </si>
+  <si>
+    <t>contain</t>
+  </si>
+  <si>
+    <t>chứa đựng</t>
+  </si>
+  <si>
+    <t>accurate</t>
+  </si>
+  <si>
+    <t>chính xác</t>
+  </si>
+  <si>
+    <t>resulted</t>
+  </si>
+  <si>
+    <t>kết quả</t>
+  </si>
+  <si>
+    <t>devices</t>
+  </si>
+  <si>
+    <t>thiết bị</t>
+  </si>
+  <si>
+    <t>indentified</t>
+  </si>
+  <si>
+    <t>guests</t>
+  </si>
+  <si>
+    <t>khách</t>
+  </si>
+  <si>
+    <t>vendors</t>
+  </si>
+  <si>
+    <t>nhà cung cấp</t>
+  </si>
+  <si>
+    <t>confident</t>
+  </si>
+  <si>
+    <t>tự tin</t>
+  </si>
+  <si>
+    <t>accommodate</t>
+  </si>
+  <si>
+    <t>extend</t>
+  </si>
+  <si>
+    <t>mở rộng</t>
+  </si>
+  <si>
+    <t>grocery store</t>
+  </si>
+  <si>
+    <t>cửa hàng tạp hóa</t>
+  </si>
+  <si>
+    <t>admired</t>
+  </si>
+  <si>
+    <t>ngưỡng mộ</t>
+  </si>
+  <si>
+    <t>malfunction</t>
+  </si>
+  <si>
+    <t>trục trặc</t>
+  </si>
+  <si>
+    <t>inserted</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chèn vào</t>
+  </si>
+  <si>
+    <t>incorrectly</t>
+  </si>
+  <si>
+    <t>không chính xác</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>forecast</t>
+  </si>
+  <si>
+    <t>dự báo</t>
+  </si>
+  <si>
+    <t>investigation</t>
+  </si>
+  <si>
+    <t>assurances</t>
+  </si>
+  <si>
+    <t>bảo đảm</t>
+  </si>
+  <si>
+    <t>prove</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>bệnh nhân</t>
+  </si>
+  <si>
+    <t>attracts</t>
+  </si>
+  <si>
+    <t>thu hút</t>
+  </si>
+  <si>
+    <t>exterior</t>
+  </si>
+  <si>
+    <t>bên ngoài</t>
+  </si>
+  <si>
+    <t>privacy</t>
+  </si>
+  <si>
+    <t>decade</t>
+  </si>
+  <si>
+    <t>thập kỷ</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>lãng phí</t>
+  </si>
+  <si>
+    <t>across</t>
+  </si>
+  <si>
+    <t>qua,băng qua</t>
   </si>
 </sst>
 </file>
@@ -2613,10 +2787,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C220"/>
+  <dimension ref="A1:C252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="B211" sqref="B211"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="A252" sqref="A252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5044,6 +5218,358 @@
       </c>
       <c r="C220" t="s">
         <v>446</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>447</v>
+      </c>
+      <c r="C221" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>449</v>
+      </c>
+      <c r="C222" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>451</v>
+      </c>
+      <c r="C223" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>453</v>
+      </c>
+      <c r="C224" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>455</v>
+      </c>
+      <c r="C225" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>457</v>
+      </c>
+      <c r="C226" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>459</v>
+      </c>
+      <c r="C227" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>461</v>
+      </c>
+      <c r="C228" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>463</v>
+      </c>
+      <c r="C229" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>465</v>
+      </c>
+      <c r="C230" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>466</v>
+      </c>
+      <c r="C231" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>468</v>
+      </c>
+      <c r="C232" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>470</v>
+      </c>
+      <c r="C233" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>472</v>
+      </c>
+      <c r="C234" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>473</v>
+      </c>
+      <c r="C235" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>475</v>
+      </c>
+      <c r="C236" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>477</v>
+      </c>
+      <c r="C237" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>479</v>
+      </c>
+      <c r="C238" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>481</v>
+      </c>
+      <c r="C239" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>483</v>
+      </c>
+      <c r="C240" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>485</v>
+      </c>
+      <c r="C241" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>486</v>
+      </c>
+      <c r="C242" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>488</v>
+      </c>
+      <c r="C243" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>489</v>
+      </c>
+      <c r="C244" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>491</v>
+      </c>
+      <c r="C245" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>492</v>
+      </c>
+      <c r="C246" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>494</v>
+      </c>
+      <c r="C247" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>496</v>
+      </c>
+      <c r="C248" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>498</v>
+      </c>
+      <c r="C249" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>499</v>
+      </c>
+      <c r="C250" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>501</v>
+      </c>
+      <c r="C251" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>503</v>
+      </c>
+      <c r="C252" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>
